--- a/glider generator.xlsx
+++ b/glider generator.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\austrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403524A8-EAF4-41A9-992B-DA1545434BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B055D8-F1C8-4A18-B76A-523153AF24CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="870" windowWidth="26970" windowHeight="11715" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="others" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
   <si>
     <t>ref_class</t>
   </si>
@@ -487,6 +488,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>NAVITER</t>
+  </si>
+  <si>
+    <t>FD49A2</t>
   </si>
 </sst>
 </file>
@@ -840,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D63A99-35FA-4916-AEE8-0B88647505A1}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1665,4 +1672,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43664BE6-29D0-4763-83DE-3E24E15CE2EB}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>